--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>

--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>

--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>

--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>

--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>

--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>

--- a/src/test/resources/testData/OFFSTAND.xlsx
+++ b/src/test/resources/testData/OFFSTAND.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="18">
   <si>
     <t>MUSTERI_KODU</t>
   </si>
